--- a/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='House'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='House'.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.57365700703313294</v>
+        <v>0.57369428798094535</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>0.54034254233245704</v>
+        <v>0.54032957857810693</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.49409147283896609</v>
+        <v>0.49407841561558469</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.23979290969121941</v>
+        <v>0.2397439165646989</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0.15074360180117291</v>
+        <v>0.15074186039231791</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0.14593846994072879</v>
+        <v>0.14592809608209159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>0.1280144055699039</v>
+        <v>0.12805973879969079</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>0.1224725161710717</v>
+        <v>0.1224629529633586</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0.1182659677153175</v>
+        <v>0.11831431671268811</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>0.11561981617026321</v>
+        <v>0.1156186232721786</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>9.8736547624147394E-2</v>
+        <v>9.8674725855790416E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>9.8599511203708023E-2</v>
+        <v>9.8528915029622105E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="D17">
-        <v>9.7226040039493769E-2</v>
+        <v>9.7221774258799382E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="D18">
-        <v>7.5867651252229065E-2</v>
+        <v>7.6014871479604285E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>6.7378485912234817E-2</v>
+        <v>6.7342034373160498E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>6.7288914115625278E-2</v>
+        <v>6.7289557455042517E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="D23">
-        <v>6.415860379788485E-2</v>
+        <v>6.4148328137525593E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>4.8272692429115922E-2</v>
+        <v>4.826916111275021E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
